--- a/materialliste.xlsx
+++ b/materialliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JonasKeller 1/Documents/pizzaofen/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JonasKeller 1/Documents/woodfired-pizzaoven-german/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,9 +117,6 @@
     <t>Sabag</t>
   </si>
   <si>
-    <t>Bächler&amp;Güttinger</t>
-  </si>
-  <si>
     <t>Ytong Tisch 60x20x7.5 cm</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>http://www.holzbackofen-welt.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bächler&amp;Güttinger </t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>3.85</v>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" s="1">
         <v>3.85</v>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1">
         <v>3.75</v>
@@ -608,7 +608,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
         <v>33</v>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>3.2</v>
@@ -716,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>16</v>
@@ -743,7 +743,7 @@
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1">
         <v>42</v>
@@ -761,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -779,7 +779,7 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>14</v>
@@ -789,7 +789,7 @@
         <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -824,7 +824,7 @@
         <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <v>44.5</v>
@@ -855,7 +855,7 @@
         <v>55</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -873,7 +873,7 @@
         <v>90</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -891,7 +891,7 @@
         <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -909,7 +909,7 @@
         <v>45</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -948,7 +948,7 @@
         <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -966,7 +966,7 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
